--- a/01/RandomForest_R_vs_Python/vs_result/compare.xlsx
+++ b/01/RandomForest_R_vs_Python/vs_result/compare.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="compare" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,25 +20,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>生存</t>
-    <rPh sb="0" eb="2">
-      <t>セイゾン</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>死</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>python</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>score</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -46,7 +28,20 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>pred</t>
+    <t>survived</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>deceased</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>kaggle
+score</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>prediction</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -57,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +216,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +417,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -608,18 +617,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -632,7 +630,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -645,24 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -675,10 +660,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -817,52 +804,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,82 +1189,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" customHeight="1"/>
-    <row r="2" spans="2:6" ht="24.5" customHeight="1">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:6" ht="27" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="2:6" ht="27" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" ht="27" customHeight="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:6" ht="33.5" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
+    <row r="5" spans="2:6" ht="27" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="13">
-        <v>0.755</v>
-      </c>
-      <c r="F3" s="14"/>
+      <c r="E5" s="15">
+        <v>257</v>
+      </c>
+      <c r="F5" s="15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="33.5" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="24.5" customHeight="1">
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>257</v>
-      </c>
-      <c r="F5" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="24.5" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+    <row r="6" spans="2:6" ht="27" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="15">
         <v>131</v>
       </c>
     </row>
